--- a/plymouth/Plymouth_Pressure_Digitised_1892.xlsx
+++ b/plymouth/Plymouth_Pressure_Digitised_1892.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\research\dpv\uk\dwr_plymouth_1873-9AND1891-1921\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/plymouth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361759BE-2FDC-41FF-B296-DB65036FEACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2961732-525E-6C44-84CF-9E89B7D71908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jan1892" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,8 @@
     <sheet name="apr1892" sheetId="8" r:id="rId4"/>
     <sheet name="may1892" sheetId="9" r:id="rId5"/>
     <sheet name="jun1892" sheetId="10" r:id="rId6"/>
-    <sheet name="jul1892" sheetId="11" r:id="rId7"/>
-    <sheet name="aug1892" sheetId="12" r:id="rId8"/>
-    <sheet name="sep1892" sheetId="1" r:id="rId9"/>
-    <sheet name="oct1892" sheetId="2" r:id="rId10"/>
-    <sheet name="nov1892" sheetId="3" r:id="rId11"/>
-    <sheet name="dec1892" sheetId="4" r:id="rId12"/>
+    <sheet name="nov1892" sheetId="3" r:id="rId7"/>
+    <sheet name="dec1892" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -49,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ellie Steventon:</t>
         </r>
@@ -58,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 I think this may be wrong but this is what is written in the log book.</t>
@@ -83,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ellie Steventon:</t>
         </r>
@@ -92,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cannot make out the final digit.</t>
@@ -104,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
   <si>
     <t>Date</t>
   </si>
@@ -125,14 +121,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,23 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -466,9 +454,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,9 +466,9 @@
       <c r="C1">
         <v>2100</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,7 +479,7 @@
         <v>30.196999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -502,7 +490,7 @@
         <v>30.265000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,7 +501,7 @@
         <v>30.138999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -524,7 +512,7 @@
         <v>30.228999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -535,7 +523,7 @@
         <v>29.765999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -546,7 +534,7 @@
         <v>29.635000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -557,7 +545,7 @@
         <v>29.463000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -568,7 +556,7 @@
         <v>29.497</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -579,7 +567,7 @@
         <v>29.501999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -590,7 +578,7 @@
         <v>29.725999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -601,7 +589,7 @@
         <v>29.952999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -612,7 +600,7 @@
         <v>29.826000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -623,7 +611,7 @@
         <v>29.634</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -634,7 +622,7 @@
         <v>29.532</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -645,7 +633,7 @@
         <v>29.388000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -656,7 +644,7 @@
         <v>29.234000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -667,7 +655,7 @@
         <v>29.457000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -678,7 +666,7 @@
         <v>29.774000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -689,7 +677,7 @@
         <v>29.815999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -700,7 +688,7 @@
         <v>29.908000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -711,7 +699,7 @@
         <v>29.870999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -722,7 +710,7 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -733,7 +721,7 @@
         <v>30.024000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -744,7 +732,7 @@
         <v>30.344000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -755,7 +743,7 @@
         <v>30.571000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -766,7 +754,7 @@
         <v>30.437000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -777,7 +765,7 @@
         <v>30.128</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -788,7 +776,7 @@
         <v>30.391999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -799,7 +787,7 @@
         <v>30.411000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -810,7 +798,7 @@
         <v>30.263999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -819,910 +807,6 @@
       </c>
       <c r="C32">
         <v>30.085999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>900</v>
-      </c>
-      <c r="C1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>900</v>
-      </c>
-      <c r="C1">
-        <v>2100</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>29.888000000000002</v>
-      </c>
-      <c r="C2">
-        <v>29.899000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>29.747</v>
-      </c>
-      <c r="C3">
-        <v>29.654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>29.741</v>
-      </c>
-      <c r="C4">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>29.731000000000002</v>
-      </c>
-      <c r="C5">
-        <v>29.774000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>29.844000000000001</v>
-      </c>
-      <c r="C6">
-        <v>29.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>29.928000000000001</v>
-      </c>
-      <c r="C7">
-        <v>30.052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>30.164000000000001</v>
-      </c>
-      <c r="C8">
-        <v>30.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>30.277999999999999</v>
-      </c>
-      <c r="C9">
-        <v>30.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>30.177</v>
-      </c>
-      <c r="C10">
-        <v>30.14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>30.170999999999999</v>
-      </c>
-      <c r="C11">
-        <v>30.155999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>30.103999999999999</v>
-      </c>
-      <c r="C12">
-        <v>30.027999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>29.97</v>
-      </c>
-      <c r="C13">
-        <v>29.846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>29.744</v>
-      </c>
-      <c r="C14">
-        <v>29.739000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>29.693999999999999</v>
-      </c>
-      <c r="C15">
-        <v>29.585999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>29.733000000000001</v>
-      </c>
-      <c r="C16">
-        <v>29.725000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>29.754000000000001</v>
-      </c>
-      <c r="C17">
-        <v>29.960999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>30.082999999999998</v>
-      </c>
-      <c r="C18">
-        <v>30.018999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>29.867999999999999</v>
-      </c>
-      <c r="C19">
-        <v>29.645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>29.611000000000001</v>
-      </c>
-      <c r="C20">
-        <v>29.812000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>29.905000000000001</v>
-      </c>
-      <c r="C21">
-        <v>30.033000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>30.172999999999998</v>
-      </c>
-      <c r="C22">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>30.202000000000002</v>
-      </c>
-      <c r="C23">
-        <v>30.192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>30.209</v>
-      </c>
-      <c r="C24">
-        <v>30.215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>30.234000000000002</v>
-      </c>
-      <c r="C25">
-        <v>30.17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>30.100999999999999</v>
-      </c>
-      <c r="C26">
-        <v>30.058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>30.186</v>
-      </c>
-      <c r="C27">
-        <v>30.280999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>30.46</v>
-      </c>
-      <c r="C28">
-        <v>30.515999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>30.513999999999999</v>
-      </c>
-      <c r="C29">
-        <v>30.379000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>30.190999999999999</v>
-      </c>
-      <c r="C30">
-        <v>30.152000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>30.282</v>
-      </c>
-      <c r="C31">
-        <v>30.317</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="9" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>900</v>
-      </c>
-      <c r="C1">
-        <v>2100</v>
-      </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>30.029</v>
-      </c>
-      <c r="C2">
-        <v>29.856999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>30.077000000000002</v>
-      </c>
-      <c r="C3">
-        <v>29.888999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>29.71</v>
-      </c>
-      <c r="C4">
-        <v>29.657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>29.768999999999998</v>
-      </c>
-      <c r="C5">
-        <v>29.873999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>29.867999999999999</v>
-      </c>
-      <c r="C6">
-        <v>29.911000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>30.012</v>
-      </c>
-      <c r="C7">
-        <v>30.026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>30.038</v>
-      </c>
-      <c r="C8">
-        <v>30.225999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>30.303000000000001</v>
-      </c>
-      <c r="C9">
-        <v>30.106000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>29.748999999999999</v>
-      </c>
-      <c r="C10">
-        <v>29.992000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>30.135000000000002</v>
-      </c>
-      <c r="C11">
-        <v>29.794</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>29.582999999999998</v>
-      </c>
-      <c r="C12">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>29.533000000000001</v>
-      </c>
-      <c r="C13">
-        <v>29.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>30.033000000000001</v>
-      </c>
-      <c r="C14">
-        <v>30.224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>30.131</v>
-      </c>
-      <c r="C15">
-        <v>30.120999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>30.181999999999999</v>
-      </c>
-      <c r="C16">
-        <v>30.271000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>30.373000000000001</v>
-      </c>
-      <c r="C17">
-        <v>30.341999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>30.353999999999999</v>
-      </c>
-      <c r="C18">
-        <v>30.367000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>30.347999999999999</v>
-      </c>
-      <c r="C19">
-        <v>30.303999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>30.209</v>
-      </c>
-      <c r="C20">
-        <v>30.113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>30.068000000000001</v>
-      </c>
-      <c r="C21">
-        <v>30.065000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>30.056999999999999</v>
-      </c>
-      <c r="C22">
-        <v>30.030999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>29.928999999999998</v>
-      </c>
-      <c r="C23" s="4">
-        <v>29.901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>29.934000000000001</v>
-      </c>
-      <c r="C24">
-        <v>29.855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>29.841000000000001</v>
-      </c>
-      <c r="C25">
-        <v>29.82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>29.751000000000001</v>
-      </c>
-      <c r="C26">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>30.077999999999999</v>
-      </c>
-      <c r="C27">
-        <v>30.161000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>30.238</v>
-      </c>
-      <c r="C28">
-        <v>30.298999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>30.298999999999999</v>
-      </c>
-      <c r="C29">
-        <v>30.193000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>29.989000000000001</v>
-      </c>
-      <c r="C30">
-        <v>29.850999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>29.78</v>
-      </c>
-      <c r="C31">
-        <v>29.707000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>29.64</v>
-      </c>
-      <c r="C32">
-        <v>29.698</v>
       </c>
     </row>
   </sheetData>
@@ -1738,9 +822,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1750,9 +834,9 @@
       <c r="C1">
         <v>2100</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1763,7 +847,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1774,7 +858,7 @@
         <v>29.337</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1785,7 +869,7 @@
         <v>29.771999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1796,7 +880,7 @@
         <v>29.699000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1807,7 +891,7 @@
         <v>29.939</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1818,7 +902,7 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1829,7 +913,7 @@
         <v>30.033999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1840,7 +924,7 @@
         <v>30.164000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1851,7 +935,7 @@
         <v>30.39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1862,7 +946,7 @@
         <v>30.456</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1873,7 +957,7 @@
         <v>30.521999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1884,7 +968,7 @@
         <v>30.542999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1895,7 +979,7 @@
         <v>30.541</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1906,7 +990,7 @@
         <v>29.843</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1917,7 +1001,7 @@
         <v>29.478999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1928,7 +1012,7 @@
         <v>29.614999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1939,7 +1023,7 @@
         <v>29.231999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1950,7 +1034,7 @@
         <v>29.207000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1961,7 +1045,7 @@
         <v>29.021000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1972,7 +1056,7 @@
         <v>29.059000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1983,7 +1067,7 @@
         <v>29.373000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1994,7 +1078,7 @@
         <v>29.439</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2005,7 +1089,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2016,7 +1100,7 @@
         <v>29.738</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2027,18 +1111,18 @@
         <v>29.858000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>29.983000000000001</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>30.056999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2049,7 +1133,7 @@
         <v>29.928000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2060,7 +1144,7 @@
         <v>29.832000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2086,9 +1170,9 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2100,11 +1184,11 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>29.97</v>
       </c>
       <c r="C2">
@@ -2112,7 +1196,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2124,7 +1208,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2136,7 +1220,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2148,7 +1232,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2160,7 +1244,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2172,7 +1256,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2184,7 +1268,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2196,7 +1280,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2208,7 +1292,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2220,7 +1304,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2232,7 +1316,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2244,7 +1328,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2256,7 +1340,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2268,7 +1352,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2280,7 +1364,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2292,7 +1376,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2304,7 +1388,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2316,7 +1400,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2328,7 +1412,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2340,7 +1424,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2352,7 +1436,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2364,7 +1448,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2376,7 +1460,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2388,7 +1472,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2400,7 +1484,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2412,7 +1496,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2424,7 +1508,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2436,7 +1520,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2448,7 +1532,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2460,7 +1544,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2486,9 +1570,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2498,9 +1582,9 @@
       <c r="C1">
         <v>2100</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2512,7 +1596,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2524,7 +1608,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2536,7 +1620,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2548,7 +1632,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2560,7 +1644,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2572,7 +1656,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2584,7 +1668,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2596,7 +1680,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2608,7 +1692,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2620,7 +1704,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2632,7 +1716,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2644,7 +1728,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2656,7 +1740,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2668,7 +1752,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2680,7 +1764,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2692,7 +1776,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2704,7 +1788,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2716,7 +1800,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2728,7 +1812,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2740,7 +1824,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2752,7 +1836,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2764,7 +1848,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2776,7 +1860,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2788,7 +1872,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2800,7 +1884,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2812,7 +1896,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2824,7 +1908,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2836,7 +1920,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2848,7 +1932,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2873,9 +1957,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2885,9 +1969,9 @@
       <c r="C1">
         <v>2100</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2899,7 +1983,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2911,7 +1995,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2923,7 +2007,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2935,7 +2019,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2947,7 +2031,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2959,7 +2043,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2971,7 +2055,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2983,7 +2067,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2995,7 +2079,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3007,7 +2091,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3019,7 +2103,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3031,7 +2115,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3043,7 +2127,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3055,7 +2139,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3067,7 +2151,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3079,7 +2163,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3091,7 +2175,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3103,7 +2187,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3115,7 +2199,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3127,7 +2211,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3139,7 +2223,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3151,7 +2235,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3163,7 +2247,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3175,7 +2259,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3187,7 +2271,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3199,7 +2283,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3211,7 +2295,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3223,7 +2307,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3235,7 +2319,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3247,7 +2331,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3266,18 +2350,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="8" width="9.140625" style="2"/>
+    <col min="5" max="8" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3287,9 +2371,9 @@
       <c r="C1">
         <v>2100</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3299,9 +2383,9 @@
       <c r="C2">
         <v>29.82</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3311,9 +2395,9 @@
       <c r="C3">
         <v>29.797000000000001</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3323,9 +2407,9 @@
       <c r="C4">
         <v>30.071999999999999</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3335,9 +2419,9 @@
       <c r="C5">
         <v>29.795999999999999</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3347,9 +2431,9 @@
       <c r="C6">
         <v>30.08</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3359,9 +2443,9 @@
       <c r="C7">
         <v>30.31</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3371,9 +2455,9 @@
       <c r="C8">
         <v>30.335000000000001</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3383,9 +2467,9 @@
       <c r="C9">
         <v>30.285</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3395,9 +2479,9 @@
       <c r="C10">
         <v>30.114000000000001</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3407,9 +2491,9 @@
       <c r="C11">
         <v>29.911000000000001</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3419,9 +2503,9 @@
       <c r="C12">
         <v>29.898</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3431,9 +2515,9 @@
       <c r="C13">
         <v>29.983000000000001</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3443,9 +2527,9 @@
       <c r="C14">
         <v>30.120999999999999</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3455,9 +2539,9 @@
       <c r="C15">
         <v>30.091000000000001</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3467,9 +2551,9 @@
       <c r="C16">
         <v>30.071999999999999</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3479,9 +2563,9 @@
       <c r="C17">
         <v>30.027999999999999</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3491,9 +2575,9 @@
       <c r="C18">
         <v>30.068000000000001</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3503,9 +2587,9 @@
       <c r="C19">
         <v>30.029</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3515,9 +2599,9 @@
       <c r="C20">
         <v>29.922000000000001</v>
       </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3527,9 +2611,9 @@
       <c r="C21">
         <v>29.905999999999999</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3539,9 +2623,9 @@
       <c r="C22">
         <v>29.937999999999999</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3551,9 +2635,9 @@
       <c r="C23">
         <v>29.806999999999999</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3563,9 +2647,9 @@
       <c r="C24">
         <v>29.988</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3575,9 +2659,9 @@
       <c r="C25">
         <v>30.018000000000001</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3587,9 +2671,9 @@
       <c r="C26">
         <v>29.995000000000001</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3599,9 +2683,9 @@
       <c r="C27">
         <v>30.154</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3611,9 +2695,9 @@
       <c r="C28">
         <v>30.158999999999999</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3623,9 +2707,9 @@
       <c r="C29">
         <v>29.96</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3635,9 +2719,9 @@
       <c r="C30">
         <v>30.308</v>
       </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3647,7 +2731,7 @@
       <c r="C31">
         <v>30.376000000000001</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3655,16 +2739,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3674,155 +2758,336 @@
       <c r="C1">
         <v>2100</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>29.888000000000002</v>
+      </c>
+      <c r="C2">
+        <v>29.899000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>29.747</v>
+      </c>
+      <c r="C3">
+        <v>29.654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>29.741</v>
+      </c>
+      <c r="C4">
+        <v>29.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>29.731000000000002</v>
+      </c>
+      <c r="C5">
+        <v>29.774000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>29.844000000000001</v>
+      </c>
+      <c r="C6">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>29.928000000000001</v>
+      </c>
+      <c r="C7">
+        <v>30.052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="C8">
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>30.277999999999999</v>
+      </c>
+      <c r="C9">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>30.177</v>
+      </c>
+      <c r="C10">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>30.170999999999999</v>
+      </c>
+      <c r="C11">
+        <v>30.155999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>30.103999999999999</v>
+      </c>
+      <c r="C12">
+        <v>30.027999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>29.97</v>
+      </c>
+      <c r="C13">
+        <v>29.846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>29.744</v>
+      </c>
+      <c r="C14">
+        <v>29.739000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>29.693999999999999</v>
+      </c>
+      <c r="C15">
+        <v>29.585999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>29.733000000000001</v>
+      </c>
+      <c r="C16">
+        <v>29.725000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>29.754000000000001</v>
+      </c>
+      <c r="C17">
+        <v>29.960999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>30.082999999999998</v>
+      </c>
+      <c r="C18">
+        <v>30.018999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>29.867999999999999</v>
+      </c>
+      <c r="C19">
+        <v>29.645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>29.611000000000001</v>
+      </c>
+      <c r="C20">
+        <v>29.812000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>29.905000000000001</v>
+      </c>
+      <c r="C21">
+        <v>30.033000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>30.172999999999998</v>
+      </c>
+      <c r="C22">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>30.202000000000002</v>
+      </c>
+      <c r="C23">
+        <v>30.192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>30.209</v>
+      </c>
+      <c r="C24">
+        <v>30.215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>30.234000000000002</v>
+      </c>
+      <c r="C25">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>30.100999999999999</v>
+      </c>
+      <c r="C26">
+        <v>30.058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>30.186</v>
+      </c>
+      <c r="C27">
+        <v>30.280999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>30.46</v>
+      </c>
+      <c r="C28">
+        <v>30.515999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>30.513999999999999</v>
+      </c>
+      <c r="C29">
+        <v>30.379000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>30.190999999999999</v>
+      </c>
+      <c r="C30">
+        <v>30.152000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30.282</v>
+      </c>
+      <c r="C31">
+        <v>30.317</v>
       </c>
     </row>
   </sheetData>
@@ -3831,29 +3096,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="9" width="9.1640625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3862,252 +3118,348 @@
       <c r="C1">
         <v>2100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2">
+        <v>30.029</v>
+      </c>
+      <c r="C2">
+        <v>29.856999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3">
+        <v>30.077000000000002</v>
+      </c>
+      <c r="C3">
+        <v>29.888999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4">
+        <v>29.71</v>
+      </c>
+      <c r="C4">
+        <v>29.657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5">
+        <v>29.768999999999998</v>
+      </c>
+      <c r="C5">
+        <v>29.873999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6">
+        <v>29.867999999999999</v>
+      </c>
+      <c r="C6">
+        <v>29.911000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7">
+        <v>30.012</v>
+      </c>
+      <c r="C7">
+        <v>30.026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8">
+        <v>30.038</v>
+      </c>
+      <c r="C8">
+        <v>30.225999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9">
+        <v>30.303000000000001</v>
+      </c>
+      <c r="C9">
+        <v>30.106000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10">
+        <v>29.748999999999999</v>
+      </c>
+      <c r="C10">
+        <v>29.992000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11">
+        <v>30.135000000000002</v>
+      </c>
+      <c r="C11">
+        <v>29.794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12">
+        <v>29.582999999999998</v>
+      </c>
+      <c r="C12">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13">
+        <v>29.533000000000001</v>
+      </c>
+      <c r="C13">
+        <v>29.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="C14">
+        <v>30.224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15">
+        <v>30.131</v>
+      </c>
+      <c r="C15">
+        <v>30.120999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16">
+        <v>30.181999999999999</v>
+      </c>
+      <c r="C16">
+        <v>30.271000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17">
+        <v>30.373000000000001</v>
+      </c>
+      <c r="C17">
+        <v>30.341999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18">
+        <v>30.353999999999999</v>
+      </c>
+      <c r="C18">
+        <v>30.367000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19">
+        <v>30.347999999999999</v>
+      </c>
+      <c r="C19">
+        <v>30.303999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20">
+        <v>30.209</v>
+      </c>
+      <c r="C20">
+        <v>30.113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B21">
+        <v>30.068000000000001</v>
+      </c>
+      <c r="C21">
+        <v>30.065000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B22">
+        <v>30.056999999999999</v>
+      </c>
+      <c r="C22">
+        <v>30.030999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B23">
+        <v>29.928999999999998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>29.901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B24">
+        <v>29.934000000000001</v>
+      </c>
+      <c r="C24">
+        <v>29.855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B25">
+        <v>29.841000000000001</v>
+      </c>
+      <c r="C25">
+        <v>29.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="B26">
+        <v>29.751000000000001</v>
+      </c>
+      <c r="C26">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B27">
+        <v>30.077999999999999</v>
+      </c>
+      <c r="C27">
+        <v>30.161000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B28">
+        <v>30.238</v>
+      </c>
+      <c r="C28">
+        <v>30.298999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="B29">
+        <v>30.298999999999999</v>
+      </c>
+      <c r="C29">
+        <v>30.193000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B30">
+        <v>29.989000000000001</v>
+      </c>
+      <c r="C30">
+        <v>29.850999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="B31">
+        <v>29.78</v>
+      </c>
+      <c r="C31">
+        <v>29.707000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32">
+        <v>29.64</v>
+      </c>
+      <c r="C32">
+        <v>29.698</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
